--- a/data/raw/ICP/AmmoniumAcetate_LabReport.xlsx
+++ b/data/raw/ICP/AmmoniumAcetate_LabReport.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/ICP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DB5724-4FF2-5946-899D-2CAB1103C8DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940F780-1E12-B242-8ED7-627AFCF4BE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1540" windowWidth="18260" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$I$149</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -808,10 +822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="193" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1027,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>13</v>
       </c>
@@ -25949,6 +25964,139 @@
       <c r="U1038" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A15:I149" xr:uid="{83BD9CB6-776F-BC45-A8AA-3D78F20A88F6}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="&lt; 0.080"/>
+        <filter val="0.08"/>
+        <filter val="0.084"/>
+        <filter val="0.085"/>
+        <filter val="0.088"/>
+        <filter val="0.094"/>
+        <filter val="0.095"/>
+        <filter val="0.096"/>
+        <filter val="0.104"/>
+        <filter val="0.322"/>
+        <filter val="0.369"/>
+        <filter val="0.394"/>
+        <filter val="0.396"/>
+        <filter val="0.405"/>
+        <filter val="0.41"/>
+        <filter val="0.411"/>
+        <filter val="0.436"/>
+        <filter val="0.475"/>
+        <filter val="0.481"/>
+        <filter val="0.491"/>
+        <filter val="0.492"/>
+        <filter val="0.538"/>
+        <filter val="0.548"/>
+        <filter val="0.57"/>
+        <filter val="0.591"/>
+        <filter val="0.598"/>
+        <filter val="0.609"/>
+        <filter val="0.612"/>
+        <filter val="0.616"/>
+        <filter val="0.628"/>
+        <filter val="0.632"/>
+        <filter val="0.657"/>
+        <filter val="0.683"/>
+        <filter val="0.697"/>
+        <filter val="0.698"/>
+        <filter val="0.7"/>
+        <filter val="0.76"/>
+        <filter val="0.774"/>
+        <filter val="0.779"/>
+        <filter val="0.784"/>
+        <filter val="0.808"/>
+        <filter val="0.825"/>
+        <filter val="0.841"/>
+        <filter val="0.848"/>
+        <filter val="0.851"/>
+        <filter val="0.86"/>
+        <filter val="0.868"/>
+        <filter val="0.898"/>
+        <filter val="0.93"/>
+        <filter val="0.949"/>
+        <filter val="0.99"/>
+        <filter val="1.016"/>
+        <filter val="1.017"/>
+        <filter val="1.018"/>
+        <filter val="1.023"/>
+        <filter val="1.034"/>
+        <filter val="1.038"/>
+        <filter val="1.046"/>
+        <filter val="1.061"/>
+        <filter val="1.114"/>
+        <filter val="1.141"/>
+        <filter val="1.15"/>
+        <filter val="1.171"/>
+        <filter val="1.177"/>
+        <filter val="1.198"/>
+        <filter val="1.231"/>
+        <filter val="1.425"/>
+        <filter val="1.434"/>
+        <filter val="1.463"/>
+        <filter val="1.48"/>
+        <filter val="1.502"/>
+        <filter val="1.515"/>
+        <filter val="1.581"/>
+        <filter val="1.594"/>
+        <filter val="1.685"/>
+        <filter val="1.712"/>
+        <filter val="1.714"/>
+        <filter val="1.859"/>
+        <filter val="1.868"/>
+        <filter val="1.947"/>
+        <filter val="11.458"/>
+        <filter val="17.827"/>
+        <filter val="2.037"/>
+        <filter val="2.162"/>
+        <filter val="2.284"/>
+        <filter val="2.326"/>
+        <filter val="2.339"/>
+        <filter val="2.442"/>
+        <filter val="2.471"/>
+        <filter val="2.475"/>
+        <filter val="2.498"/>
+        <filter val="2.547"/>
+        <filter val="2.608"/>
+        <filter val="2.689"/>
+        <filter val="2.739"/>
+        <filter val="2.869"/>
+        <filter val="2.99"/>
+        <filter val="24.903"/>
+        <filter val="26.905"/>
+        <filter val="3.034"/>
+        <filter val="3.068"/>
+        <filter val="3.09"/>
+        <filter val="3.312"/>
+        <filter val="33.689"/>
+        <filter val="4.009"/>
+        <filter val="4.014"/>
+        <filter val="4.142"/>
+        <filter val="4.389"/>
+        <filter val="4.672"/>
+        <filter val="4.944"/>
+        <filter val="4.968"/>
+        <filter val="5.218"/>
+        <filter val="5.792"/>
+        <filter val="50.172"/>
+        <filter val="52.546"/>
+        <filter val="54.842"/>
+        <filter val="59.977"/>
+        <filter val="6.261"/>
+        <filter val="6.63"/>
+        <filter val="7.53"/>
+        <filter val="8.064"/>
+        <filter val="8.065"/>
+        <filter val="8.236"/>
+        <filter val="8.309"/>
+        <filter val="8.811"/>
+        <filter val="85.886"/>
+        <filter val="9.409"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A1:H1"/>
